--- a/exports/commandes.xlsx
+++ b/exports/commandes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commandes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Commandes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,26 +514,18 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TEST-001</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entreprise Test SARL</t>
+          <t>Atlas Pack</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sachets fond plat</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Sachets kraft 15x25cm</t>
-        </is>
-      </c>
+          <t>Sac fond carré avec poignées plates</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>5000</v>
       </c>
@@ -542,38 +534,26 @@
           <t>pièces</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>MAD</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>en_attente</t>
+          <t>validee</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-23 20:41:16</t>
+          <t>2025-12-27 21:11:39</t>
         </is>
       </c>
     </row>
@@ -581,32 +561,24 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marjane Market</t>
+          <t>marjane market</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sac fond carré sans poignées</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sacs Kraft Fond Carré (Format Standard)</t>
-        </is>
-      </c>
+          <t>Sachets fond plat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>15000</v>
+        <v>600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>unités</t>
+          <t>pièces</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -614,7 +586,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -624,11 +596,11 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-23 20:43:37</t>
+          <t>2025-12-27 22:14:09</t>
         </is>
       </c>
     </row>
@@ -639,7 +611,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Supermarché Nour</t>
+          <t>Opoint</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -649,11 +621,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sacs fond carré en marron</t>
+          <t>sacs en cartonne pour les commandes de tacos</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -665,7 +637,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,11 +647,11 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-23 20:54:10</t>
+          <t>2025-12-27 22:37:51</t>
         </is>
       </c>
     </row>
@@ -690,21 +662,17 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ch'hiwat Fès</t>
+          <t>ecole centrale casablanca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sac fond carré avec poignées plates</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sacs poignées plates (hadouk lli kano f le dernier échantillon)</t>
-        </is>
-      </c>
+          <t>Sachets fond plat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -716,10 +684,14 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>en_attente</t>
@@ -730,7 +702,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-23 21:03:50</t>
+          <t>2025-12-27 22:41:17</t>
         </is>
       </c>
     </row>
@@ -741,21 +713,21 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ch'hiwat Fès</t>
+          <t>Client WhatsApp +212617087040</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sac fond carré avec poignées plates</t>
+          <t>Sachets fond plat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sacs poignées plates</t>
+          <t>black pack</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -767,266 +739,25 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>en_attente</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-23 21:07:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Société Atlas Pack</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sac fond carré sans poignées</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Format 25x30 avec impression logo en 2 couleurs</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>pièces</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>en_attente</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>85</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2025-12-23 21:08:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1096</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Marjane Market</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>en_attente</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>50</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2025-12-23 21:35:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>chhiwat fes</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sac fond carré avec poignées plates</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sacs poignées plates</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>pièces</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>en_attente</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>85</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2025-12-23 22:01:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>chhiwat fes</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sac fond carré avec poignées plates</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>sacs poignées plates</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>pièces</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>en_attente</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>85</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2025-12-23 22:02:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>marjane market</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sac fond carré sans poignées</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sacs Kraft Fond Carré (Format Standard)</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>unités</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>en_attente</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>85</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2025-12-23 22:02:05</t>
+          <t>2025-12-27 22:52:57</t>
         </is>
       </c>
     </row>
